--- a/data/2017_Silverman_et_al-isotope_model.xlsx
+++ b/data/2017_Silverman_et_al-isotope_model.xlsx
@@ -12,9 +12,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">organism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eps_aq_gas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eps_aq_gas_se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intercept_se</t>
   </si>
   <si>
     <t xml:space="preserve">eps_fix</t>
@@ -371,19 +383,43 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.75538857986008</v>
+        <v>0.699274815840872</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0445800014145818</v>
+        <v>0.0782849199613612</v>
       </c>
       <c r="D2" t="n">
-        <v>0.862431933672569</v>
+        <v>-2.02370836512157</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0512092502138108</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.72298318096244</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0935463307715349</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.858889646811031</v>
       </c>
     </row>
   </sheetData>
